--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf15-Gfral.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf15-Gfral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.560467666666666</v>
+        <v>0.5100866666666667</v>
       </c>
       <c r="H2">
-        <v>7.681403</v>
+        <v>1.53026</v>
       </c>
       <c r="I2">
-        <v>0.05411463343753969</v>
+        <v>0.01119863082017819</v>
       </c>
       <c r="J2">
-        <v>0.05411463343753969</v>
+        <v>0.01119863082017819</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,27 +561,27 @@
         <v>0.311088</v>
       </c>
       <c r="O2">
-        <v>0.7372347535109464</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.7372347535109464</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2655102551626666</v>
+        <v>0.05289394698666668</v>
       </c>
       <c r="R2">
-        <v>2.389592296464</v>
+        <v>0.4760455228800001</v>
       </c>
       <c r="S2">
-        <v>0.03989518844365979</v>
+        <v>0.01119863082017819</v>
       </c>
       <c r="T2">
-        <v>0.03989518844365979</v>
+        <v>0.01119863082017819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.4246273333333333</v>
+      </c>
+      <c r="H3">
+        <v>1.273882</v>
+      </c>
+      <c r="I3">
+        <v>0.009322425095389171</v>
+      </c>
+      <c r="J3">
+        <v>0.009322425095389173</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>2.560467666666666</v>
-      </c>
-      <c r="H3">
-        <v>7.681403</v>
-      </c>
-      <c r="I3">
-        <v>0.05411463343753969</v>
-      </c>
-      <c r="J3">
-        <v>0.05411463343753969</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.03695933333333333</v>
+        <v>0.103696</v>
       </c>
       <c r="N3">
-        <v>0.110878</v>
+        <v>0.311088</v>
       </c>
       <c r="O3">
-        <v>0.2627652464890536</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.2627652464890536</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.09463317798155553</v>
+        <v>0.04403215595733333</v>
       </c>
       <c r="R3">
-        <v>0.8516986018339999</v>
+        <v>0.396289403616</v>
       </c>
       <c r="S3">
-        <v>0.0142194449938799</v>
+        <v>0.009322425095389171</v>
       </c>
       <c r="T3">
-        <v>0.0142194449938799</v>
+        <v>0.009322425095389173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4246273333333333</v>
+        <v>0.6440956666666667</v>
       </c>
       <c r="H4">
-        <v>1.273882</v>
+        <v>1.932287</v>
       </c>
       <c r="I4">
-        <v>0.008974357610540671</v>
+        <v>0.01414071383400838</v>
       </c>
       <c r="J4">
-        <v>0.008974357610540671</v>
+        <v>0.01414071383400838</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,27 +685,27 @@
         <v>0.311088</v>
       </c>
       <c r="O4">
-        <v>0.7372347535109464</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.7372347535109464</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.04403215595733333</v>
+        <v>0.06679014425066668</v>
       </c>
       <c r="R4">
-        <v>0.396289403616</v>
+        <v>0.6011112982560001</v>
       </c>
       <c r="S4">
-        <v>0.006616208320926037</v>
+        <v>0.01414071383400838</v>
       </c>
       <c r="T4">
-        <v>0.006616208320926037</v>
+        <v>0.01414071383400838</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,303 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4246273333333333</v>
+        <v>43.970211</v>
       </c>
       <c r="H5">
-        <v>1.273882</v>
+        <v>131.910633</v>
       </c>
       <c r="I5">
-        <v>0.008974357610540671</v>
+        <v>0.9653382302504243</v>
       </c>
       <c r="J5">
-        <v>0.008974357610540671</v>
+        <v>0.9653382302504243</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03695933333333333</v>
+        <v>0.103696</v>
       </c>
       <c r="N5">
-        <v>0.110878</v>
+        <v>0.311088</v>
       </c>
       <c r="O5">
-        <v>0.2627652464890536</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.2627652464890536</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.01569394315511111</v>
+        <v>4.559534999856</v>
       </c>
       <c r="R5">
-        <v>0.141245488396</v>
+        <v>41.035814998704</v>
       </c>
       <c r="S5">
-        <v>0.002358149289614633</v>
+        <v>0.9653382302504243</v>
       </c>
       <c r="T5">
-        <v>0.002358149289614634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>1.334581666666667</v>
-      </c>
-      <c r="H6">
-        <v>4.003744999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.02820594011958262</v>
-      </c>
-      <c r="J6">
-        <v>0.02820594011958263</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.103696</v>
-      </c>
-      <c r="N6">
-        <v>0.311088</v>
-      </c>
-      <c r="O6">
-        <v>0.7372347535109464</v>
-      </c>
-      <c r="P6">
-        <v>0.7372347535109464</v>
-      </c>
-      <c r="Q6">
-        <v>0.1383907805066666</v>
-      </c>
-      <c r="R6">
-        <v>1.24551702456</v>
-      </c>
-      <c r="S6">
-        <v>0.02079439931160501</v>
-      </c>
-      <c r="T6">
-        <v>0.02079439931160501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>1.334581666666667</v>
-      </c>
-      <c r="H7">
-        <v>4.003744999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.02820594011958262</v>
-      </c>
-      <c r="J7">
-        <v>0.02820594011958263</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.03695933333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.110878</v>
-      </c>
-      <c r="O7">
-        <v>0.2627652464890536</v>
-      </c>
-      <c r="P7">
-        <v>0.2627652464890536</v>
-      </c>
-      <c r="Q7">
-        <v>0.04932524867888888</v>
-      </c>
-      <c r="R7">
-        <v>0.4439272381099999</v>
-      </c>
-      <c r="S7">
-        <v>0.007411540807977614</v>
-      </c>
-      <c r="T7">
-        <v>0.007411540807977617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>42.99594766666667</v>
-      </c>
-      <c r="H8">
-        <v>128.987843</v>
-      </c>
-      <c r="I8">
-        <v>0.908705068832337</v>
-      </c>
-      <c r="J8">
-        <v>0.9087050688323371</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.103696</v>
-      </c>
-      <c r="N8">
-        <v>0.311088</v>
-      </c>
-      <c r="O8">
-        <v>0.7372347535109464</v>
-      </c>
-      <c r="P8">
-        <v>0.7372347535109464</v>
-      </c>
-      <c r="Q8">
-        <v>4.458507789242667</v>
-      </c>
-      <c r="R8">
-        <v>40.12657010318399</v>
-      </c>
-      <c r="S8">
-        <v>0.6699289574347556</v>
-      </c>
-      <c r="T8">
-        <v>0.6699289574347557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>42.99594766666667</v>
-      </c>
-      <c r="H9">
-        <v>128.987843</v>
-      </c>
-      <c r="I9">
-        <v>0.908705068832337</v>
-      </c>
-      <c r="J9">
-        <v>0.9087050688323371</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.03695933333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.110878</v>
-      </c>
-      <c r="O9">
-        <v>0.2627652464890536</v>
-      </c>
-      <c r="P9">
-        <v>0.2627652464890536</v>
-      </c>
-      <c r="Q9">
-        <v>1.589101561794889</v>
-      </c>
-      <c r="R9">
-        <v>14.301914056154</v>
-      </c>
-      <c r="S9">
-        <v>0.2387761113975815</v>
-      </c>
-      <c r="T9">
-        <v>0.2387761113975815</v>
+        <v>0.9653382302504243</v>
       </c>
     </row>
   </sheetData>
